--- a/02_config/scenario_pv_60_hp_60_ev_60_individual_transition_perfect/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_individual_transition_perfect/agents.xlsx
@@ -28,10 +28,10 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
-  </si>
-  <si>
-    <t>general/aggregated_by</t>
   </si>
   <si>
     <t>general/parameters/area</t>
@@ -2792,11 +2792,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>3</v>
+      <c r="G2">
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2805,7 +2805,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>372</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO2">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="JQ2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:295">
@@ -3328,7 +3328,7 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
@@ -3500,7 +3500,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>372</v>
@@ -3755,7 +3755,7 @@
         <v>486</v>
       </c>
       <c r="IN3">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO3">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="JQ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:295">
@@ -3837,11 +3837,11 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3850,7 +3850,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>372</v>
@@ -4186,7 +4186,7 @@
         <v>486</v>
       </c>
       <c r="IN4">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO4">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="JQ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:295">
@@ -4268,11 +4268,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4281,7 +4281,7 @@
         <v>2.6</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>372</v>
@@ -4617,7 +4617,7 @@
         <v>486</v>
       </c>
       <c r="IN5">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO5">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="JQ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:295">
@@ -4699,11 +4699,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>4</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4712,7 +4712,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4871,7 +4871,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>372</v>
@@ -5099,7 +5099,7 @@
         <v>486</v>
       </c>
       <c r="IN6">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO6">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="JQ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:295">
@@ -5181,11 +5181,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>4</v>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5194,7 +5194,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5353,7 +5353,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>372</v>
@@ -5635,7 +5635,7 @@
         <v>486</v>
       </c>
       <c r="IN7">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO7">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="JQ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:295">
@@ -5717,11 +5717,11 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>4</v>
+      <c r="G8">
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5730,7 +5730,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5889,7 +5889,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>372</v>
@@ -6171,7 +6171,7 @@
         <v>486</v>
       </c>
       <c r="IN8">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6228,7 +6228,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6243,7 +6243,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO8">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="JQ8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR8" t="s">
         <v>500</v>
@@ -6292,11 +6292,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>4</v>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6305,7 +6305,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6464,7 +6464,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>372</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO9">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="JQ9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR9" t="s">
         <v>501</v>
@@ -6855,7 +6855,7 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>372</v>
@@ -7204,7 +7204,7 @@
         <v>486</v>
       </c>
       <c r="IN10">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO10">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="JQ10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:295">
@@ -7286,7 +7286,7 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
@@ -7458,7 +7458,7 @@
         <v>60</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>372</v>
@@ -7770,7 +7770,7 @@
         <v>59</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH11">
         <v>8300</v>
@@ -7785,7 +7785,7 @@
         <v>60</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM11">
         <v>6800</v>
@@ -7800,7 +7800,7 @@
         <v>57</v>
       </c>
       <c r="JQ11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:295">
@@ -7813,7 +7813,7 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>372</v>
@@ -8162,7 +8162,7 @@
         <v>486</v>
       </c>
       <c r="IN12">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO12">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="JQ12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:295">
@@ -8244,7 +8244,7 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
@@ -8416,7 +8416,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>372</v>
@@ -8698,7 +8698,7 @@
         <v>486</v>
       </c>
       <c r="IN13">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO13">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="JQ13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:295">
@@ -8780,7 +8780,7 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>372</v>
@@ -9129,7 +9129,7 @@
         <v>486</v>
       </c>
       <c r="IN14">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO14">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="JQ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:295">
@@ -9211,7 +9211,7 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
@@ -9383,7 +9383,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>372</v>
@@ -9638,7 +9638,7 @@
         <v>486</v>
       </c>
       <c r="IN15">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO15">
         <v>0</v>
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="JQ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:295">
@@ -9720,7 +9720,7 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4</v>
       </c>
       <c r="H16">
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>372</v>
@@ -10069,7 +10069,7 @@
         <v>486</v>
       </c>
       <c r="IN16">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO16">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="JQ16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:295">
@@ -10151,11 +10151,11 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>3</v>
+      <c r="G17">
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -10164,7 +10164,7 @@
         <v>2.6</v>
       </c>
       <c r="K17">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>372</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO17">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="JQ17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:295">
@@ -10582,7 +10582,7 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
@@ -10754,7 +10754,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>372</v>
@@ -11036,7 +11036,7 @@
         <v>486</v>
       </c>
       <c r="IN18">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -11096,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO18">
         <v>0</v>
@@ -11105,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="JQ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:295">
@@ -11118,11 +11118,11 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>3</v>
+      <c r="G19">
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -11131,7 +11131,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11275,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>372</v>
@@ -11467,7 +11467,7 @@
         <v>486</v>
       </c>
       <c r="IN19">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO19">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="JQ19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:295">
@@ -11549,7 +11549,7 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
@@ -11721,7 +11721,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>372</v>
@@ -11976,7 +11976,7 @@
         <v>486</v>
       </c>
       <c r="IN20">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO20">
         <v>0</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="JQ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:295">
@@ -12058,7 +12058,7 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
@@ -12230,7 +12230,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>372</v>
@@ -12485,7 +12485,7 @@
         <v>486</v>
       </c>
       <c r="IN21">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO21">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="JQ21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:295">
@@ -12567,11 +12567,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>3</v>
+      <c r="G22">
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12580,7 +12580,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12739,7 +12739,7 @@
         <v>90</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>372</v>
@@ -13051,7 +13051,7 @@
         <v>48</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO22">
         <v>0</v>
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="JQ22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:295">
@@ -13082,7 +13082,7 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
@@ -13254,7 +13254,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>372</v>
@@ -13536,7 +13536,7 @@
         <v>486</v>
       </c>
       <c r="IN23">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13593,7 +13593,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13608,7 +13608,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO23">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="JQ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR23" t="s">
         <v>502</v>
@@ -13657,11 +13657,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>4</v>
+      <c r="G24">
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13670,7 +13670,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13829,7 +13829,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>372</v>
@@ -14084,7 +14084,7 @@
         <v>486</v>
       </c>
       <c r="IN24">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -14135,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO24">
         <v>0</v>
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="JQ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:295">
@@ -14166,7 +14166,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
@@ -14338,7 +14338,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>372</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14653,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO25">
         <v>0</v>
@@ -14662,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="JQ25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:295">
@@ -14675,7 +14675,7 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
@@ -14847,7 +14847,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>372</v>
@@ -15129,7 +15129,7 @@
         <v>486</v>
       </c>
       <c r="IN26">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -15186,7 +15186,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO26">
         <v>0</v>
@@ -15204,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="JQ26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:295">
@@ -15217,7 +15217,7 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4</v>
       </c>
       <c r="H27">
@@ -15374,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>372</v>
@@ -15617,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15626,7 +15626,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO27">
         <v>0</v>
@@ -15635,7 +15635,7 @@
         <v>0</v>
       </c>
       <c r="JQ27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:295">
@@ -15648,7 +15648,7 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
@@ -15820,7 +15820,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>372</v>
@@ -16102,7 +16102,7 @@
         <v>486</v>
       </c>
       <c r="IN28">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -16159,7 +16159,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -16168,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO28">
         <v>0</v>
@@ -16177,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="JQ28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:295">
@@ -16190,11 +16190,11 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>4</v>
+      <c r="G29">
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -16203,7 +16203,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -16362,7 +16362,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>372</v>
@@ -16590,7 +16590,7 @@
         <v>486</v>
       </c>
       <c r="IN29">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16647,7 +16647,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO29">
         <v>0</v>
@@ -16665,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="JQ29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:295">
@@ -16678,11 +16678,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>3</v>
+      <c r="G30">
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16691,7 +16691,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16850,7 +16850,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>372</v>
@@ -17132,7 +17132,7 @@
         <v>486</v>
       </c>
       <c r="IN30">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -17183,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -17192,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO30">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="JQ30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR30" t="s">
         <v>503</v>
@@ -17268,7 +17268,7 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
@@ -17425,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>372</v>
@@ -17617,7 +17617,7 @@
         <v>486</v>
       </c>
       <c r="IN31">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO31">
         <v>0</v>
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="JQ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:295">
@@ -17699,11 +17699,11 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>3</v>
+      <c r="G32">
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17712,7 +17712,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17856,7 +17856,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>372</v>
@@ -18048,7 +18048,7 @@
         <v>486</v>
       </c>
       <c r="IN32">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -18099,7 +18099,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -18108,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO32">
         <v>0</v>
@@ -18117,7 +18117,7 @@
         <v>0</v>
       </c>
       <c r="JQ32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:295">
@@ -18130,7 +18130,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
@@ -18302,7 +18302,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>372</v>
@@ -18584,7 +18584,7 @@
         <v>486</v>
       </c>
       <c r="IN33">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18635,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18644,7 +18644,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO33">
         <v>0</v>
@@ -18653,7 +18653,7 @@
         <v>0</v>
       </c>
       <c r="JQ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:295">
@@ -18666,11 +18666,11 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>3</v>
+      <c r="G34">
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18679,7 +18679,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18838,7 +18838,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>372</v>
@@ -19120,7 +19120,7 @@
         <v>486</v>
       </c>
       <c r="IN34">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO34">
         <v>0</v>
@@ -19189,7 +19189,7 @@
         <v>0</v>
       </c>
       <c r="JQ34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR34" t="s">
         <v>504</v>
@@ -19256,7 +19256,7 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4</v>
       </c>
       <c r="H35">
@@ -19413,7 +19413,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>372</v>
@@ -19605,7 +19605,7 @@
         <v>486</v>
       </c>
       <c r="IN35">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19656,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19665,7 +19665,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO35">
         <v>0</v>
@@ -19674,7 +19674,7 @@
         <v>0</v>
       </c>
       <c r="JQ35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:295">
@@ -19687,7 +19687,7 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>4</v>
       </c>
       <c r="H36">
@@ -19844,7 +19844,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>372</v>
@@ -20087,7 +20087,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO36">
         <v>0</v>
@@ -20105,7 +20105,7 @@
         <v>0</v>
       </c>
       <c r="JQ36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:295">
@@ -20118,7 +20118,7 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
@@ -20275,7 +20275,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>372</v>
@@ -20467,7 +20467,7 @@
         <v>486</v>
       </c>
       <c r="IN37">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -20518,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20527,7 +20527,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO37">
         <v>0</v>
@@ -20536,7 +20536,7 @@
         <v>0</v>
       </c>
       <c r="JQ37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:295">
@@ -20549,7 +20549,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>4</v>
       </c>
       <c r="H38">
@@ -20706,7 +20706,7 @@
         <v>0</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>372</v>
@@ -20898,7 +20898,7 @@
         <v>486</v>
       </c>
       <c r="IN38">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20949,7 +20949,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20958,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO38">
         <v>0</v>
@@ -20967,7 +20967,7 @@
         <v>0</v>
       </c>
       <c r="JQ38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:295">
@@ -20980,7 +20980,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
@@ -21137,7 +21137,7 @@
         <v>0</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>372</v>
@@ -21329,7 +21329,7 @@
         <v>486</v>
       </c>
       <c r="IN39">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21380,7 +21380,7 @@
         <v>0</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21389,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO39">
         <v>0</v>
@@ -21398,7 +21398,7 @@
         <v>0</v>
       </c>
       <c r="JQ39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:295">
@@ -21411,11 +21411,11 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
-        <v>4</v>
+      <c r="G40">
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -21424,7 +21424,7 @@
         <v>2.6</v>
       </c>
       <c r="K40">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -21583,7 +21583,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>372</v>
@@ -21865,7 +21865,7 @@
         <v>486</v>
       </c>
       <c r="IN40">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21916,7 +21916,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21925,7 +21925,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO40">
         <v>0</v>
@@ -21934,7 +21934,7 @@
         <v>0</v>
       </c>
       <c r="JQ40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
